--- a/linreg/rifreg2bw_coefs_3_blk0.xlsx
+++ b/linreg/rifreg2bw_coefs_3_blk0.xlsx
@@ -153,13 +153,13 @@
         <v>0.099911811840450851</v>
       </c>
       <c r="C2">
-        <v>0.0027099013836475966</v>
+        <v>0.0028569040372733957</v>
       </c>
       <c r="D2">
-        <v>0.094600491457930924</v>
+        <v>0.094312370939893378</v>
       </c>
       <c r="E2">
-        <v>0.10522313222297078</v>
+        <v>0.10551125274100832</v>
       </c>
     </row>
     <row r="3">
@@ -170,13 +170,13 @@
         <v>0.066346534435201818</v>
       </c>
       <c r="C3">
-        <v>0.0025245038609195709</v>
+        <v>0.0024197661733399889</v>
       </c>
       <c r="D3">
-        <v>0.061398587274941782</v>
+        <v>0.061603869806632121</v>
       </c>
       <c r="E3">
-        <v>0.071294481595461853</v>
+        <v>0.071089199063771522</v>
       </c>
     </row>
     <row r="4">
@@ -187,13 +187,13 @@
         <v>0.22379304461969762</v>
       </c>
       <c r="C4">
-        <v>0.0029703542831522015</v>
+        <v>0.0035456914720986736</v>
       </c>
       <c r="D4">
-        <v>0.2179712448514064</v>
+        <v>0.21684360228960958</v>
       </c>
       <c r="E4">
-        <v>0.22961484438798885</v>
+        <v>0.23074248694978566</v>
       </c>
     </row>
     <row r="5">
@@ -204,13 +204,13 @@
         <v>0.12142590350303535</v>
       </c>
       <c r="C5">
-        <v>0.002755417803159133</v>
+        <v>0.0029960022714083014</v>
       </c>
       <c r="D5">
-        <v>0.11602537237074982</v>
+        <v>0.11555383447575823</v>
       </c>
       <c r="E5">
-        <v>0.12682643463532089</v>
+        <v>0.12729797253031247</v>
       </c>
     </row>
     <row r="6">
@@ -221,13 +221,13 @@
         <v>0.27952529399523213</v>
       </c>
       <c r="C6">
-        <v>0.0029829820905507743</v>
+        <v>0.00319827048881732</v>
       </c>
       <c r="D6">
-        <v>0.27367874412672422</v>
+        <v>0.27325678572457235</v>
       </c>
       <c r="E6">
-        <v>0.28537184386374004</v>
+        <v>0.28579380226589191</v>
       </c>
     </row>
     <row r="7">
@@ -238,13 +238,13 @@
         <v>0.16220245539426587</v>
       </c>
       <c r="C7">
-        <v>0.0029113335872855395</v>
+        <v>0.0029662100164370665</v>
       </c>
       <c r="D7">
-        <v>0.15649633429111495</v>
+        <v>0.15638877823782904</v>
       </c>
       <c r="E7">
-        <v>0.16790857649741678</v>
+        <v>0.16801613255070269</v>
       </c>
     </row>
     <row r="8">
@@ -255,13 +255,13 @@
         <v>0.29681670024926987</v>
       </c>
       <c r="C8">
-        <v>0.0030123982653331308</v>
+        <v>0.0032221353102112001</v>
       </c>
       <c r="D8">
-        <v>0.29091249561530075</v>
+        <v>0.29050141768894056</v>
       </c>
       <c r="E8">
-        <v>0.30272090488323899</v>
+        <v>0.30313198280959919</v>
       </c>
     </row>
     <row r="9">
@@ -272,13 +272,13 @@
         <v>0.17576914406285277</v>
       </c>
       <c r="C9">
-        <v>0.0029995873445897909</v>
+        <v>0.0032860703006868815</v>
       </c>
       <c r="D9">
-        <v>0.1698900484063269</v>
+        <v>0.16932855093705104</v>
       </c>
       <c r="E9">
-        <v>0.18164823971937863</v>
+        <v>0.18220973718865449</v>
       </c>
     </row>
     <row r="10">
@@ -289,13 +289,13 @@
         <v>0.30036046426094082</v>
       </c>
       <c r="C10">
-        <v>0.0032164050978327335</v>
+        <v>0.0040616069452579758</v>
       </c>
       <c r="D10">
-        <v>0.2940564127343257</v>
+        <v>0.29239984403899899</v>
       </c>
       <c r="E10">
-        <v>0.30666451578755594</v>
+        <v>0.30832108448288265</v>
       </c>
     </row>
     <row r="11">
@@ -306,13 +306,13 @@
         <v>0.18906347621713274</v>
       </c>
       <c r="C11">
-        <v>0.0032510664314850841</v>
+        <v>0.0036096578630518406</v>
       </c>
       <c r="D11">
-        <v>0.18269148956006981</v>
+        <v>0.18198866177557674</v>
       </c>
       <c r="E11">
-        <v>0.19543546287419566</v>
+        <v>0.19613829065868874</v>
       </c>
     </row>
     <row r="12">
@@ -323,13 +323,13 @@
         <v>0.25545972876148842</v>
       </c>
       <c r="C12">
-        <v>0.003279088149817908</v>
+        <v>0.0032181564443055847</v>
       </c>
       <c r="D12">
-        <v>0.24903282044987871</v>
+        <v>0.24915224465157926</v>
       </c>
       <c r="E12">
-        <v>0.26188663707309812</v>
+        <v>0.26176721287139759</v>
       </c>
     </row>
     <row r="13">
@@ -340,13 +340,13 @@
         <v>0.17704884174070726</v>
       </c>
       <c r="C13">
-        <v>0.0034383923435100505</v>
+        <v>0.0041232240344184871</v>
       </c>
       <c r="D13">
-        <v>0.17030970226253142</v>
+        <v>0.16896745396069987</v>
       </c>
       <c r="E13">
-        <v>0.1837879812188831</v>
+        <v>0.18513022952071465</v>
       </c>
     </row>
     <row r="14">
@@ -357,13 +357,13 @@
         <v>0.18281992704954889</v>
       </c>
       <c r="C14">
-        <v>0.0035161613775762835</v>
+        <v>0.0033851474851953486</v>
       </c>
       <c r="D14">
-        <v>0.17592836276398341</v>
+        <v>0.17618514581933559</v>
       </c>
       <c r="E14">
-        <v>0.18971149133511436</v>
+        <v>0.18945470827976219</v>
       </c>
     </row>
     <row r="15">
@@ -374,13 +374,13 @@
         <v>0.15311075306140101</v>
       </c>
       <c r="C15">
-        <v>0.0037045065835945999</v>
+        <v>0.0034758250652745727</v>
       </c>
       <c r="D15">
-        <v>0.14585003814857661</v>
+        <v>0.14629824664082403</v>
       </c>
       <c r="E15">
-        <v>0.16037146797422541</v>
+        <v>0.159923259481978</v>
       </c>
     </row>
     <row r="16">
@@ -391,13 +391,13 @@
         <v>0.075081263302723814</v>
       </c>
       <c r="C16">
-        <v>0.0035760614763188279</v>
+        <v>0.0032369285528657263</v>
       </c>
       <c r="D16">
-        <v>0.06807229673186263</v>
+        <v>0.06873698645806052</v>
       </c>
       <c r="E16">
-        <v>0.082090229873584997</v>
+        <v>0.081425540147387107</v>
       </c>
     </row>
     <row r="17">
@@ -408,13 +408,13 @@
         <v>0.11852376482395927</v>
       </c>
       <c r="C17">
-        <v>0.0042347312889397257</v>
+        <v>0.0040460367545335539</v>
       </c>
       <c r="D17">
-        <v>0.11022382637667115</v>
+        <v>0.11059366165405968</v>
       </c>
       <c r="E17">
-        <v>0.12682370327124737</v>
+        <v>0.12645386799385885</v>
       </c>
     </row>
     <row r="18">
@@ -425,13 +425,13 @@
         <v>-0.0053577079345280224</v>
       </c>
       <c r="C18">
-        <v>0.0034926708246738915</v>
+        <v>0.0031162011699023516</v>
       </c>
       <c r="D18">
-        <v>-0.012203231484744229</v>
+        <v>-0.011465362954599833</v>
       </c>
       <c r="E18">
-        <v>0.0014878156156881853</v>
+        <v>0.00074994708554378901</v>
       </c>
     </row>
     <row r="19">
@@ -442,13 +442,13 @@
         <v>0.061041517710584622</v>
       </c>
       <c r="C19">
-        <v>0.0052807631818302843</v>
+        <v>0.0049413439228112831</v>
       </c>
       <c r="D19">
-        <v>0.050691390070048858</v>
+        <v>0.051356641006994899</v>
       </c>
       <c r="E19">
-        <v>0.071391645351120386</v>
+        <v>0.070726394414174346</v>
       </c>
     </row>
   </sheetData>
